--- a/downloaded_files/EECS331_Lecture-35760.xlsx
+++ b/downloaded_files/EECS331_Lecture-35760.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,24 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Hana Walid Mohamed Taher Mohamed Elseidy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف ايهاب احمد البدوي سالم محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Ehab Ahmed ElBadawy Salem Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف ساهر انور عبدالهادي احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOUSSIF SAHER ANWAR ABDELHADY AHMED</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -245,7 +227,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +527,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -554,7 +536,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.630625000000002" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.350625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="41.980625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -910,70 +892,6 @@
       <x:c r="S10" s="2" t="s"/>
       <x:c r="T10" s="2" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:20">
-      <x:c r="A11" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E11" s="3">
-        <x:v>45906.4161756134</x:v>
-      </x:c>
-      <x:c r="F11" s="2" t="s"/>
-      <x:c r="G11" s="2" t="s"/>
-      <x:c r="H11" s="2" t="s"/>
-      <x:c r="I11" s="2" t="s"/>
-      <x:c r="J11" s="2" t="s"/>
-      <x:c r="K11" s="2" t="s"/>
-      <x:c r="L11" s="2" t="s"/>
-      <x:c r="M11" s="2" t="s"/>
-      <x:c r="N11" s="2" t="s"/>
-      <x:c r="O11" s="2" t="s"/>
-      <x:c r="P11" s="2" t="s"/>
-      <x:c r="Q11" s="2" t="s"/>
-      <x:c r="R11" s="2" t="s"/>
-      <x:c r="S11" s="2" t="s"/>
-      <x:c r="T11" s="2" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:20">
-      <x:c r="A12" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E12" s="3">
-        <x:v>45906.4180948264</x:v>
-      </x:c>
-      <x:c r="F12" s="2" t="s"/>
-      <x:c r="G12" s="2" t="s"/>
-      <x:c r="H12" s="2" t="s"/>
-      <x:c r="I12" s="2" t="s"/>
-      <x:c r="J12" s="2" t="s"/>
-      <x:c r="K12" s="2" t="s"/>
-      <x:c r="L12" s="2" t="s"/>
-      <x:c r="M12" s="2" t="s"/>
-      <x:c r="N12" s="2" t="s"/>
-      <x:c r="O12" s="2" t="s"/>
-      <x:c r="P12" s="2" t="s"/>
-      <x:c r="Q12" s="2" t="s"/>
-      <x:c r="R12" s="2" t="s"/>
-      <x:c r="S12" s="2" t="s"/>
-      <x:c r="T12" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>

--- a/downloaded_files/EECS331_Lecture-35760.xlsx
+++ b/downloaded_files/EECS331_Lecture-35760.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,24 +51,6 @@
     <x:t>Ahmed Hosam El Din Ahmed Yosef</x:t>
   </x:si>
   <x:si>
-    <x:t>1210008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روان ياسر هاشم محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rawan yasser hashem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمي محمود محمد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Mahmoud Mohamed Ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210174</x:t>
   </x:si>
   <x:si>
@@ -94,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Mustafa Mohammed Mustafa Noah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك محمد حلمى محمود الكشك</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Malak Mohamed Helmy Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1210392</x:t>
@@ -227,7 +200,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -527,7 +500,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T10"/>
+  <x:dimension ref="A1:T7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -682,7 +655,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6652131597</x:v>
+        <x:v>45906.4154896991</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -714,7 +687,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.414416088</x:v>
+        <x:v>45906.6659138542</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -746,7 +719,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4154896991</x:v>
+        <x:v>45906.5046043981</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -778,7 +751,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6659138542</x:v>
+        <x:v>45906.6698939468</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -795,102 +768,6 @@
       <x:c r="R7" s="2" t="s"/>
       <x:c r="S7" s="2" t="s"/>
       <x:c r="T7" s="2" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:20">
-      <x:c r="A8" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E8" s="3">
-        <x:v>45906.5046043981</x:v>
-      </x:c>
-      <x:c r="F8" s="2" t="s"/>
-      <x:c r="G8" s="2" t="s"/>
-      <x:c r="H8" s="2" t="s"/>
-      <x:c r="I8" s="2" t="s"/>
-      <x:c r="J8" s="2" t="s"/>
-      <x:c r="K8" s="2" t="s"/>
-      <x:c r="L8" s="2" t="s"/>
-      <x:c r="M8" s="2" t="s"/>
-      <x:c r="N8" s="2" t="s"/>
-      <x:c r="O8" s="2" t="s"/>
-      <x:c r="P8" s="2" t="s"/>
-      <x:c r="Q8" s="2" t="s"/>
-      <x:c r="R8" s="2" t="s"/>
-      <x:c r="S8" s="2" t="s"/>
-      <x:c r="T8" s="2" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:20">
-      <x:c r="A9" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E9" s="3">
-        <x:v>45906.6996595255</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="s"/>
-      <x:c r="G9" s="2" t="s"/>
-      <x:c r="H9" s="2" t="s"/>
-      <x:c r="I9" s="2" t="s"/>
-      <x:c r="J9" s="2" t="s"/>
-      <x:c r="K9" s="2" t="s"/>
-      <x:c r="L9" s="2" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:20">
-      <x:c r="A10" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E10" s="3">
-        <x:v>45906.6698939468</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s"/>
-      <x:c r="G10" s="2" t="s"/>
-      <x:c r="H10" s="2" t="s"/>
-      <x:c r="I10" s="2" t="s"/>
-      <x:c r="J10" s="2" t="s"/>
-      <x:c r="K10" s="2" t="s"/>
-      <x:c r="L10" s="2" t="s"/>
-      <x:c r="M10" s="2" t="s"/>
-      <x:c r="N10" s="2" t="s"/>
-      <x:c r="O10" s="2" t="s"/>
-      <x:c r="P10" s="2" t="s"/>
-      <x:c r="Q10" s="2" t="s"/>
-      <x:c r="R10" s="2" t="s"/>
-      <x:c r="S10" s="2" t="s"/>
-      <x:c r="T10" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS331_Lecture-35760.xlsx
+++ b/downloaded_files/EECS331_Lecture-35760.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد تامر احمد فهيم دخان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Tamer Ahmed Fahim Dokhan</x:t>
   </x:si>
   <x:si>
     <x:t>1210188</x:t>
@@ -200,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -500,7 +491,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T7"/>
+  <x:dimension ref="A1:T6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -591,7 +582,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4168480324</x:v>
+        <x:v>45906.670134456</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -623,7 +614,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.670134456</x:v>
+        <x:v>45906.4154896991</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -655,7 +646,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4154896991</x:v>
+        <x:v>45906.6659138542</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -687,7 +678,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6659138542</x:v>
+        <x:v>45906.5046043981</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -719,7 +710,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.5046043981</x:v>
+        <x:v>45906.6698939468</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -736,38 +727,6 @@
       <x:c r="R6" s="2" t="s"/>
       <x:c r="S6" s="2" t="s"/>
       <x:c r="T6" s="2" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:20">
-      <x:c r="A7" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E7" s="3">
-        <x:v>45906.6698939468</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="s"/>
-      <x:c r="G7" s="2" t="s"/>
-      <x:c r="H7" s="2" t="s"/>
-      <x:c r="I7" s="2" t="s"/>
-      <x:c r="J7" s="2" t="s"/>
-      <x:c r="K7" s="2" t="s"/>
-      <x:c r="L7" s="2" t="s"/>
-      <x:c r="M7" s="2" t="s"/>
-      <x:c r="N7" s="2" t="s"/>
-      <x:c r="O7" s="2" t="s"/>
-      <x:c r="P7" s="2" t="s"/>
-      <x:c r="Q7" s="2" t="s"/>
-      <x:c r="R7" s="2" t="s"/>
-      <x:c r="S7" s="2" t="s"/>
-      <x:c r="T7" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
